--- a/data/excel1.xlsx
+++ b/data/excel1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/super/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/super/develop/Go-excel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C073663-8CE7-DA4D-A3B3-1E60125B167B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B215F47C-3F33-1840-99B1-6E0A10D1F9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16680" xr2:uid="{A2138C4C-0A81-9C4E-8761-017898688F6C}"/>
   </bookViews>
@@ -31,29 +31,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>aaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小董</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小赵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,13 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A1555C-F6D4-9444-9F1C-56869909D5D4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -441,11 +476,121 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>20200001</v>
+      </c>
+      <c r="C2">
+        <v>13888888888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>20200002</v>
+      </c>
+      <c r="C3">
+        <v>13777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20200003</v>
+      </c>
+      <c r="C4">
+        <v>13666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20200004</v>
+      </c>
+      <c r="C5">
+        <v>13555555555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>20200005</v>
+      </c>
+      <c r="C6">
+        <v>13444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>20200006</v>
+      </c>
+      <c r="C7">
+        <v>13333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>20200007</v>
+      </c>
+      <c r="C8">
+        <v>13222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>20200008</v>
+      </c>
+      <c r="C9">
+        <v>13111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>20200009</v>
+      </c>
+      <c r="C10">
+        <v>13000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>20200010</v>
+      </c>
+      <c r="C11">
+        <v>12888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>20200011</v>
+      </c>
+      <c r="C12">
+        <v>12777777778</v>
       </c>
     </row>
   </sheetData>
